--- a/ProjectList.xlsx
+++ b/ProjectList.xlsx
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Repo_Name</t>
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Proj_1</t>
+  </si>
+  <si>
+    <t>.NET MAUI for Beginners by James Montemagno, setup, Navigation, etc</t>
   </si>
 </sst>
 </file>
@@ -347,15 +353,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -366,6 +373,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectList.xlsx
+++ b/ProjectList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Repo_Name</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>.NET MAUI for Beginners by James Montemagno, setup, Navigation, etc</t>
+  </si>
+  <si>
+    <t>Proj_11</t>
+  </si>
+  <si>
+    <t>MAUI WorkShop, the Monkey App</t>
   </si>
 </sst>
 </file>
@@ -353,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -381,6 +387,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectList.xlsx
+++ b/ProjectList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Repo_Name</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>MAUI WorkShop, the Monkey App</t>
+  </si>
+  <si>
+    <t>Proj_3</t>
+  </si>
+  <si>
+    <t>School barcode generator using console app, EPPLUS and Excel</t>
   </si>
 </sst>
 </file>
@@ -362,7 +368,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -387,6 +393,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
